--- a/prelim_results.xlsx
+++ b/prelim_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="460" windowWidth="27760" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>iteration</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>walleteye_performance_20_03-32-45</t>
+  </si>
+  <si>
+    <t>wallet_performance_20_01-16-57</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -198,14 +201,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -215,9 +252,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,70 +385,81 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>Sheet1!$A$4:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1500.0</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000.0</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000.0</c:v>
+                  <c:v>3500.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3500.0</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4000.0</c:v>
+                  <c:v>4500.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4500.0</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5000.0</c:v>
+                  <c:v>5500.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5500.0</c:v>
+                  <c:v>6000.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6000.0</c:v>
+                  <c:v>6500.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6500.0</c:v>
+                  <c:v>7000.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7000.0</c:v>
+                  <c:v>7500.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7500.0</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8000.0</c:v>
+                  <c:v>8500.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8500.0</c:v>
+                  <c:v>9000.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>9500.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -419,68 +467,65 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$22</c:f>
+              <c:f>Sheet1!$E$4:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>26011.648438</c:v>
+                  <c:v>21776.890625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21776.890625</c:v>
+                  <c:v>34328.367188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34328.367188</c:v>
+                  <c:v>19327.476562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19327.476562</c:v>
+                  <c:v>26773.380859</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26773.380859</c:v>
+                  <c:v>23723.408203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23723.408203</c:v>
+                  <c:v>18795.835938</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18795.835938</c:v>
+                  <c:v>23278.386719</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23278.386719</c:v>
+                  <c:v>20570.400391</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20570.400391</c:v>
+                  <c:v>19842.414062</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19842.414062</c:v>
+                  <c:v>21169.783203</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21169.783203</c:v>
+                  <c:v>18939.824219</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18939.824219</c:v>
+                  <c:v>20174.802734</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20174.802734</c:v>
+                  <c:v>18411.267578</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18411.267578</c:v>
+                  <c:v>19334.820312</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19334.820312</c:v>
+                  <c:v>18562.890625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18562.890625</c:v>
+                  <c:v>19092.892578</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19092.892578</c:v>
+                  <c:v>18161.962891</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18161.962891</c:v>
+                  <c:v>19748.216797</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19748.216797</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>18096.894531</c:v>
                 </c:pt>
               </c:numCache>
@@ -492,7 +537,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>random_weights</c:v>
+            <c:v>eye_random_weights</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="31750" cap="rnd">
@@ -516,70 +561,81 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>Sheet1!$A$4:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1500.0</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000.0</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000.0</c:v>
+                  <c:v>3500.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3500.0</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4000.0</c:v>
+                  <c:v>4500.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4500.0</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5000.0</c:v>
+                  <c:v>5500.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5500.0</c:v>
+                  <c:v>6000.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6000.0</c:v>
+                  <c:v>6500.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6500.0</c:v>
+                  <c:v>7000.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7000.0</c:v>
+                  <c:v>7500.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7500.0</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8000.0</c:v>
+                  <c:v>8500.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8500.0</c:v>
+                  <c:v>9000.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>9500.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -587,69 +643,242 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$22</c:f>
+              <c:f>Sheet1!$J$4:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>341225.71875</c:v>
+                  <c:v>139759.09375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>139759.09375</c:v>
+                  <c:v>130855.296875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130855.296875</c:v>
+                  <c:v>155270.046875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155270.046875</c:v>
+                  <c:v>125196.65625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>125196.65625</c:v>
+                  <c:v>109672.210938</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>109672.210938</c:v>
+                  <c:v>113099.492188</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>113099.492188</c:v>
+                  <c:v>85103.820312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85103.820312</c:v>
+                  <c:v>99420.757812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99420.757812</c:v>
+                  <c:v>67375.296875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67375.296875</c:v>
+                  <c:v>72791.492188</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72791.492188</c:v>
+                  <c:v>60242.226562</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60242.226562</c:v>
+                  <c:v>65664.054688</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65664.054688</c:v>
+                  <c:v>54456.753906</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>54456.753906</c:v>
+                  <c:v>60838.09375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60838.09375</c:v>
+                  <c:v>56740.554688</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>56740.554688</c:v>
+                  <c:v>56402.933594</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>56402.933594</c:v>
+                  <c:v>39424.316406</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39424.316406</c:v>
+                  <c:v>52970.183594</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>52970.183594</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>64122.027344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>wallet_random_weights</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5500.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6500.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8500.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$4:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>15505.806641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98841.429688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55560.628906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14208.816406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24900.429688</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26652.972656</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20669.132812</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21724.523438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17314.521484</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14829.693359</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19254.623047</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19735.083984</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14132.723633</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17167.734375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13513.339844</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16624.669922</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15157.973633</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13968.611328</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13635.53418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -664,11 +893,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1202181952"/>
-        <c:axId val="1117549088"/>
+        <c:axId val="1328760896"/>
+        <c:axId val="1328763104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1202181952"/>
+        <c:axId val="1328760896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -725,12 +954,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1117549088"/>
+        <c:crossAx val="1328763104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1117549088"/>
+        <c:axId val="1328763104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200000.0"/>
@@ -788,7 +1017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1202181952"/>
+        <c:crossAx val="1328760896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -989,68 +1218,65 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>Sheet1!$A$4:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1500.0</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000.0</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000.0</c:v>
+                  <c:v>3500.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3500.0</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4000.0</c:v>
+                  <c:v>4500.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4500.0</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5000.0</c:v>
+                  <c:v>5500.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5500.0</c:v>
+                  <c:v>6000.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6000.0</c:v>
+                  <c:v>6500.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6500.0</c:v>
+                  <c:v>7000.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7000.0</c:v>
+                  <c:v>7500.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7500.0</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8000.0</c:v>
+                  <c:v>8500.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8500.0</c:v>
+                  <c:v>9000.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>9500.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1058,68 +1284,65 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$22</c:f>
+              <c:f>Sheet1!$D$4:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.79</c:v>
+                  <c:v>0.81167</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81167</c:v>
+                  <c:v>0.76167</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76167</c:v>
+                  <c:v>0.82167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82167</c:v>
+                  <c:v>0.79333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79333</c:v>
+                  <c:v>0.81667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81667</c:v>
+                  <c:v>0.82667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82667</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.82</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.83833</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83333</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.83</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.83833</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.83333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.83833</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.835</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.83833</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.835</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.83833</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.83833</c:v>
+                  <c:v>0.83667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.83667</c:v>
+                  <c:v>0.845</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.845</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>0.84167</c:v>
                 </c:pt>
               </c:numCache>
@@ -1131,7 +1354,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>random_weights</c:v>
+            <c:v>eye_random_weights</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="31750" cap="rnd">
@@ -1155,70 +1378,81 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:f>Sheet1!$A$4:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1500.0</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000.0</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000.0</c:v>
+                  <c:v>3500.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3500.0</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4000.0</c:v>
+                  <c:v>4500.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4500.0</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5000.0</c:v>
+                  <c:v>5500.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5500.0</c:v>
+                  <c:v>6000.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6000.0</c:v>
+                  <c:v>6500.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6500.0</c:v>
+                  <c:v>7000.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7000.0</c:v>
+                  <c:v>7500.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7500.0</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8000.0</c:v>
+                  <c:v>8500.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8500.0</c:v>
+                  <c:v>9000.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9000.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>9500.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1226,69 +1460,242 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$22</c:f>
+              <c:f>Sheet1!$I$4:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.66167</c:v>
+                  <c:v>0.52167</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52167</c:v>
+                  <c:v>0.58833</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58833</c:v>
+                  <c:v>0.655</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.655</c:v>
+                  <c:v>0.64667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64667</c:v>
+                  <c:v>0.65667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65667</c:v>
+                  <c:v>0.66333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66333</c:v>
+                  <c:v>0.67333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.67333</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7</c:v>
+                  <c:v>0.68833</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.70333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69833</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.71667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.72167</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.765</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.71833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>wallet_random_weights</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5500.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6500.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8500.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$4:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.76833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68167</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.68833</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82167</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83833</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82333</c:v>
+                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.70333</c:v>
+                  <c:v>0.825</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.69833</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.72</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.71667</c:v>
+                  <c:v>0.85333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.72333</c:v>
+                  <c:v>0.855</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.72167</c:v>
+                  <c:v>0.855</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.765</c:v>
+                  <c:v>0.86167</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.71833</c:v>
+                  <c:v>0.86333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,11 +1710,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1118954224"/>
-        <c:axId val="1118952752"/>
+        <c:axId val="-2007394032"/>
+        <c:axId val="1328886704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1118954224"/>
+        <c:axId val="-2007394032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,12 +1771,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1118952752"/>
+        <c:crossAx val="1328886704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1118952752"/>
+        <c:axId val="1328886704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -1427,7 +1834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1118954224"/>
+        <c:crossAx val="-2007394032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1441,10 +1848,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2628,16 +3031,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2659,15 +3062,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2952,65 +3355,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="K2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>0.79110999999999998</v>
@@ -3025,7 +3450,7 @@
         <v>26011.648438</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
         <v>0.67</v>
@@ -3039,8 +3464,23 @@
       <c r="J3" s="2">
         <v>341225.71875</v>
       </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.34333000000000002</v>
+      </c>
+      <c r="M3" s="1">
+        <v>395668.125</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.31833</v>
+      </c>
+      <c r="O3" s="1">
+        <v>407100.15625</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>500</v>
       </c>
@@ -3071,8 +3511,23 @@
       <c r="J4" s="1">
         <v>139759.09375</v>
       </c>
+      <c r="K4" s="1">
+        <v>500</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.74111000000000005</v>
+      </c>
+      <c r="M4" s="1">
+        <v>16817.013672000001</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.76832999999999996</v>
+      </c>
+      <c r="O4" s="1">
+        <v>15505.806640999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1000</v>
       </c>
@@ -3103,8 +3558,23 @@
       <c r="J5" s="1">
         <v>130855.296875</v>
       </c>
+      <c r="K5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.65666999999999998</v>
+      </c>
+      <c r="M5" s="1">
+        <v>107072.898438</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.68167</v>
+      </c>
+      <c r="O5" s="1">
+        <v>98841.429688000004</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1500</v>
       </c>
@@ -3135,8 +3605,23 @@
       <c r="J6" s="1">
         <v>155270.046875</v>
       </c>
+      <c r="K6" s="1">
+        <v>1500</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="M6" s="1">
+        <v>60582.246094000002</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.68833</v>
+      </c>
+      <c r="O6" s="1">
+        <v>55560.628905999998</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2000</v>
       </c>
@@ -3167,8 +3652,23 @@
       <c r="J7" s="1">
         <v>125196.65625</v>
       </c>
+      <c r="K7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.77666999999999997</v>
+      </c>
+      <c r="M7" s="1">
+        <v>15389.364258</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.80667</v>
+      </c>
+      <c r="O7" s="1">
+        <v>14208.816406</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2500</v>
       </c>
@@ -3199,8 +3699,23 @@
       <c r="J8" s="1">
         <v>109672.210938</v>
       </c>
+      <c r="K8" s="1">
+        <v>2500</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.74333000000000005</v>
+      </c>
+      <c r="M8" s="1">
+        <v>27274.902343999998</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="O8" s="1">
+        <v>24900.429688</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3000</v>
       </c>
@@ -3231,8 +3746,23 @@
       <c r="J9" s="1">
         <v>113099.492188</v>
       </c>
+      <c r="K9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.74666999999999994</v>
+      </c>
+      <c r="M9" s="1">
+        <v>29157.90625</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.76832999999999996</v>
+      </c>
+      <c r="O9" s="1">
+        <v>26652.972656000002</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3500</v>
       </c>
@@ -3263,8 +3793,23 @@
       <c r="J10" s="1">
         <v>85103.820311999996</v>
       </c>
+      <c r="K10" s="1">
+        <v>3500</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.77888999999999997</v>
+      </c>
+      <c r="M10" s="1">
+        <v>22228.408202999999</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.79332999999999998</v>
+      </c>
+      <c r="O10" s="1">
+        <v>20669.132812</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>4000</v>
       </c>
@@ -3295,8 +3840,23 @@
       <c r="J11" s="1">
         <v>99420.757811999996</v>
       </c>
+      <c r="K11" s="1">
+        <v>4000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.77666999999999997</v>
+      </c>
+      <c r="M11" s="1">
+        <v>23298.480468999998</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O11" s="1">
+        <v>21724.523438</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>4500</v>
       </c>
@@ -3327,8 +3887,23 @@
       <c r="J12" s="1">
         <v>67375.296875</v>
       </c>
+      <c r="K12" s="1">
+        <v>4500</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.81555999999999995</v>
+      </c>
+      <c r="M12" s="1">
+        <v>18438.339843999998</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.82167000000000001</v>
+      </c>
+      <c r="O12" s="1">
+        <v>17314.521484000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>5000</v>
       </c>
@@ -3359,8 +3934,23 @@
       <c r="J13" s="1">
         <v>72791.492188000004</v>
       </c>
+      <c r="K13" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.84333000000000002</v>
+      </c>
+      <c r="M13" s="1">
+        <v>16178.019531</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.83833000000000002</v>
+      </c>
+      <c r="O13" s="1">
+        <v>14829.693359000001</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>5500</v>
       </c>
@@ -3391,8 +3981,23 @@
       <c r="J14" s="1">
         <v>60242.226562000003</v>
       </c>
+      <c r="K14" s="1">
+        <v>5500</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="M14" s="1">
+        <v>20492.738281000002</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.82333000000000001</v>
+      </c>
+      <c r="O14" s="1">
+        <v>19254.623047000001</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>6000</v>
       </c>
@@ -3423,8 +4028,23 @@
       <c r="J15" s="1">
         <v>65664.054688000004</v>
       </c>
+      <c r="K15" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.82111000000000001</v>
+      </c>
+      <c r="M15" s="1">
+        <v>21093.876952999999</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="O15" s="1">
+        <v>19735.083984000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>6500</v>
       </c>
@@ -3455,8 +4075,23 @@
       <c r="J16" s="1">
         <v>54456.753905999998</v>
       </c>
+      <c r="K16" s="1">
+        <v>6500</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.85555999999999999</v>
+      </c>
+      <c r="M16" s="1">
+        <v>16053.369140999999</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="O16" s="1">
+        <v>14132.723633</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>7000</v>
       </c>
@@ -3487,8 +4122,23 @@
       <c r="J17" s="1">
         <v>60838.09375</v>
       </c>
+      <c r="K17" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.84333000000000002</v>
+      </c>
+      <c r="M17" s="1">
+        <v>18798.707031000002</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="O17" s="1">
+        <v>17167.734375</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>7500</v>
       </c>
@@ -3519,8 +4169,23 @@
       <c r="J18" s="1">
         <v>56740.554687999997</v>
       </c>
+      <c r="K18" s="1">
+        <v>7500</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.86333000000000004</v>
+      </c>
+      <c r="M18" s="1">
+        <v>15756.376953000001</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.85333000000000003</v>
+      </c>
+      <c r="O18" s="1">
+        <v>13513.339844</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>8000</v>
       </c>
@@ -3551,8 +4216,23 @@
       <c r="J19" s="1">
         <v>56402.933594000002</v>
       </c>
+      <c r="K19" s="1">
+        <v>8000</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.85221999999999998</v>
+      </c>
+      <c r="M19" s="1">
+        <v>18571.142577999999</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="O19" s="1">
+        <v>16624.669922000001</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>8500</v>
       </c>
@@ -3583,8 +4263,23 @@
       <c r="J20" s="1">
         <v>39424.316405999998</v>
       </c>
+      <c r="K20" s="1">
+        <v>8500</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.86111000000000004</v>
+      </c>
+      <c r="M20" s="1">
+        <v>17431.634765999999</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="O20" s="1">
+        <v>15157.973633</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>9000</v>
       </c>
@@ -3615,8 +4310,23 @@
       <c r="J21" s="1">
         <v>52970.183594000002</v>
       </c>
+      <c r="K21" s="1">
+        <v>9000</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="M21" s="1">
+        <v>16544.818359000001</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.86167000000000005</v>
+      </c>
+      <c r="O21" s="1">
+        <v>13968.611328000001</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>9500</v>
       </c>
@@ -3647,13 +4357,30 @@
       <c r="J22" s="1">
         <v>64122.027344000002</v>
       </c>
+      <c r="K22" s="1">
+        <v>9500</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.87666999999999995</v>
+      </c>
+      <c r="M22" s="1">
+        <v>16345.268555000001</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.86333000000000004</v>
+      </c>
+      <c r="O22" s="1">
+        <v>13635.534180000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>